--- a/SampleApp/模版/dept_02_2.xlsx
+++ b/SampleApp/模版/dept_02_2.xlsx
@@ -644,7 +644,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="5">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>6</v>
